--- a/biology/Zoologie/Echis_carinatus/Echis_carinatus.xlsx
+++ b/biology/Zoologie/Echis_carinatus/Echis_carinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echis carinatus, l'Échide carénée, est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echis carinatus, l'Échide carénée, est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, en Iran, en Inde, au Pakistan, au Sri Lanka, au Bangladesh, aux Émirats arabes unis, à Oman, au Turkménistan, au Ouzbékistan et au Tadjikistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, en Iran, en Inde, au Pakistan, au Sri Lanka, au Bangladesh, aux Émirats arabes unis, à Oman, au Turkménistan, au Ouzbékistan et au Tadjikistan.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 80 centimètres de long.
 En cas de danger, cette espèce frotte ses écailles pour émettre un son continu, à l'instar des serpents à sonnettes qui le font avec leur cascabelle.
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de lézards, de grenouilles, de scorpions, de mille-pattes et d'insectes.
 </t>
@@ -605,9 +623,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin principalement hémotoxique et anticoagulant conduit souvent à des complications rénales[2], et des saignements du nez, des oreilles, des yeux, des gencives et des ongles. Echis carinatus peut être considéré comme l'un des serpents les plus dangereux d'Asie essentiellement parce qu'il est difficilement détectable car petit, qu'il est nocturne et qu'il est extrêmement agressif et qu'il possède un venin très puissant (il serait cinq fois plus puissant que celui du cobra). Enfin, il est présent dans des régions faiblement industrialisées où l'accès aux soins est difficile. L'utilisation de certains sérums antivenins permet néanmoins de combattre les effets d'une envenimation. Toutefois même avec l'administration d'un de ces sérums, il n'est pas rare que sa morsure conduise à la mort[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin principalement hémotoxique et anticoagulant conduit souvent à des complications rénales, et des saignements du nez, des oreilles, des yeux, des gencives et des ongles. Echis carinatus peut être considéré comme l'un des serpents les plus dangereux d'Asie essentiellement parce qu'il est difficilement détectable car petit, qu'il est nocturne et qu'il est extrêmement agressif et qu'il possède un venin très puissant (il serait cinq fois plus puissant que celui du cobra). Enfin, il est présent dans des régions faiblement industrialisées où l'accès aux soins est difficile. L'utilisation de certains sérums antivenins permet néanmoins de combattre les effets d'une envenimation. Toutefois même avec l'administration d'un de ces sérums, il n'est pas rare que sa morsure conduise à la mort,.
 L'ensemble de ces facteurs explique que ces serpents soient responsables d'un grand nombre d'envenimations mortelles chaque année.
 Il fait partie des Big Four, le classement des quatre serpents les plus dangereux d'Inde avec le cobra à lunettes, la vipère de Russell et le bongare indien.
 </t>
@@ -638,9 +658,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 décembre 2013)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 décembre 2013) :
 Echis carinatus carinatus (Schneider, 1801)
 Echis carinatus sochureki Stemmler, 1969</t>
         </is>
@@ -670,9 +692,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en raison des écailles carénées qu'elle porte sur le dos et les flancs. La sous-espèce Echis carinatus sochureki est nommée en l'honneur d'Erich Sochurek[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en raison des écailles carénées qu'elle porte sur le dos et les flancs. La sous-espèce Echis carinatus sochureki est nommée en l'honneur d'Erich Sochurek.
 </t>
         </is>
       </c>
@@ -701,7 +725,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Schneider, 1801 : Historiae Amphibiorum naturalis et literariae. Fasciculus secundus continens Crocodilos, Scincos, Chamaesauras, Boas. Pseudoboas, Elapes, Angues. Amphisbaenas et Caecilias. Frommani, Jena, p. 1-374 (texte intégral).
 Stemmler, 1969 : Die Sandrasselotter aus Pakistan: Echis carinatus sochureki subsp. nov.. AquaTerra, vol. 6, p. 118-125.
